--- a/storage/app/Colombo_mobilization_upload.xlsx
+++ b/storage/app/Colombo_mobilization_upload.xlsx
@@ -15,15 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>User Id</t>
-  </si>
-  <si>
-    <t>Branch Id</t>
   </si>
   <si>
     <t>Date</t>
@@ -59,28 +53,10 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>CV</t>
+    <t>you can edit column names</t>
   </si>
   <si>
-    <t>PPT Copy</t>
-  </si>
-  <si>
-    <t>License Copy</t>
-  </si>
-  <si>
-    <t>Police Reporter</t>
-  </si>
-  <si>
-    <t>Working Video</t>
-  </si>
-  <si>
-    <t>Myself Video</t>
-  </si>
-  <si>
-    <t>Edu Cert</t>
-  </si>
-  <si>
-    <t>Other Cert</t>
+    <t>test1</t>
   </si>
   <si>
     <t>Status</t>
@@ -466,35 +442,19 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
       <c r="X1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y1"/>
       <c r="Z1"/>
@@ -503,9 +463,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
+      <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -513,7 +471,7 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>

--- a/storage/app/Colombo_mobilization_upload.xlsx
+++ b/storage/app/Colombo_mobilization_upload.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -56,13 +56,19 @@
     <t>you can edit column names</t>
   </si>
   <si>
-    <t>test1</t>
+    <t>status</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
     <t>colombo2</t>
+  </si>
+  <si>
+    <t>Incompleted</t>
+  </si>
+  <si>
+    <t>completed</t>
   </si>
 </sst>
 </file>
@@ -477,7 +483,9 @@
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2"/>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -505,7 +513,9 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3"/>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
